--- a/biology/Botanique/Alvimia/Alvimia.xlsx
+++ b/biology/Botanique/Alvimia/Alvimia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvimia est un genre de plantes à fleurs de la famille des Poaceae,  sous-famille des Bambusoideae, originaire d'Amérique du Sud, qui compte trois espèces.
 Ce sont des plantes vivaces, aux tiges ligneuses, grimpantes, pouvant monter jusqu'à 25 m dans la végétation. Les fruits sont des caryopses à péricarpe charnu (caryopses baccoïdes).
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Alvimia » est un hommage à Paulo de Tarso Alvim (1919-2011), botaniste et agronome brésilien, qui fut directeur du centre de recherche sur le cacao à Itabuna[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Alvimia » est un hommage à Paulo de Tarso Alvim (1919-2011), botaniste et agronome brésilien, qui fut directeur du centre de recherche sur le cacao à Itabuna. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 octobre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 octobre 2017) :
 Alvimia auriculata Soderstr. &amp; Londoño
 Alvimia gracilis Soderstr. &amp; Londoño
 Alvimia lancifolia Soderstr. &amp; Londoño</t>
